--- a/Stat reports/Reports/Templates/4-у.xlsx
+++ b/Stat reports/Reports/Templates/4-у.xlsx
@@ -3,14 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Статотчетность_дирекция\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96473FA1-4DC8-48FE-902D-5B6995A9EBD8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21375" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21375" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Главная" sheetId="1" r:id="rId1"/>
@@ -19,168 +13,168 @@
     <sheet name="Раздел 3" sheetId="4" r:id="rId4"/>
     <sheet name="Раздел 4" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
   <si>
-    <t>ГОСУДАРСТВЕННАЯ СТАТИСТИЧЕСКАЯ ОТЧЕТНОСТЬ</t>
-  </si>
-  <si>
-    <t>КОНФИДЕНЦИАЛЬНОСТЬ ГАРАНТИРУЕТСЯ ПОЛУЧАТЕЛЕМ ИНФОРМАЦИИ</t>
-  </si>
-  <si>
-    <t>Представление искаженных данных государственной статистической отчетности, несвоевременное представление или непредставление такой отчетности влекут применение мер административной или уголовной ответственности в порядке, установленном законодательством Республики Беларусь</t>
-  </si>
-  <si>
-    <t>Представляют респонденты</t>
-  </si>
-  <si>
-    <t>Срок представления</t>
-  </si>
-  <si>
-    <t>4-у</t>
-  </si>
-  <si>
-    <t>юридические лица, обособленные подразделения юридических лиц
+    <t xml:space="preserve">ГОСУДАРСТВЕННАЯ СТАТИСТИЧЕСКАЯ ОТЧЕТНОСТЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОНФИДЕНЦИАЛЬНОСТЬ ГАРАНТИРУЕТСЯ ПОЛУЧАТЕЛЕМ ИНФОРМАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представление искаженных данных государственной статистической отчетности, несвоевременное представление или непредставление такой отчетности влекут применение мер административной или уголовной ответственности в порядке, установленном законодательством Республики Беларусь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представляют респонденты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срок представления</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-у</t>
+  </si>
+  <si>
+    <t xml:space="preserve">юридические лица, обособленные подразделения юридических лиц
 в соответствии с Указаниями по заполнению настоящей формы
 в виде электронного документа Главному статистическому
 управлению города Минска, отделу статистики в районе
 (городе) главного статистического управления области</t>
   </si>
   <si>
-    <t>23-го числа после отчетного периода, за
+    <t xml:space="preserve">23-го числа после отчетного периода, за
 январь-декабрь – 27 марта</t>
   </si>
   <si>
-    <t>Код формы
+    <t xml:space="preserve">Код формы
 по ОКУД</t>
   </si>
   <si>
-    <t>0619015</t>
-  </si>
-  <si>
-    <t>Квартальная</t>
-  </si>
-  <si>
-    <t>Полное наименование юридического лица: ОТКРЫТОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО "СТРОЙТРЕСТ N 3 ОРДЕНА
+    <t xml:space="preserve">0619015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Квартальная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полное наименование юридического лица: ОТКРЫТОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО "СТРОЙТРЕСТ N 3 ОРДЕНА
 ОКТЯБРЬСКОЙ РЕВОЛЮЦИИ"</t>
   </si>
   <si>
-    <t>Полное наименование обособленного подразделения юридического лица: ЗАВОД ЖЕЛЕЗОБЕТОННЫХ КОНСТРУКЦИЙ
+    <t xml:space="preserve">Полное наименование обособленного подразделения юридического лица: ЗАВОД ЖЕЛЕЗОБЕТОННЫХ КОНСТРУКЦИЙ
 ОТКРЫТОГО АКЦИОНЕРНОГО ОБЩЕСТВА "СТРОЙТРЕСТ N 3 ОРДЕНА ОКТЯБРЬСКОЙ РЕВОЛЮЦИИ"</t>
   </si>
   <si>
-    <t>Местоположение: 223710, МИНСКАЯ ОБЛАСТЬ, Солигорский, Солигорск</t>
-  </si>
-  <si>
-    <t>Электронный адрес: oao.zgbk@gmail.com, zgbk@str3.by, oao.zgbk@gmail.com</t>
-  </si>
-  <si>
-    <t>Регистрационный номер в статистическом регистре (ОКПО)</t>
-  </si>
-  <si>
-    <t>Учетный номер плательщика (УНП)</t>
-  </si>
-  <si>
-    <t>Территория нахождения</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>012774946001</t>
-  </si>
-  <si>
-    <t>600142670</t>
-  </si>
-  <si>
-    <t>Солигорский</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>56100</t>
-  </si>
-  <si>
-    <t>Деятельность ресторанов</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>25111</t>
-  </si>
-  <si>
-    <t>Производство строительных металлических конструкций и их частей</t>
-  </si>
-  <si>
-    <t>23612</t>
-  </si>
-  <si>
-    <t>Производство стеновых блоков</t>
-  </si>
-  <si>
-    <t>23611</t>
-  </si>
-  <si>
-    <t>Производство сборных железобетонных и бетонных конструкций и изделий</t>
-  </si>
-  <si>
-    <t>23630</t>
-  </si>
-  <si>
-    <t>Производство готового бетона</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>в том числе по видам экономической деятельности:</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Всего (сумма строк 11)</t>
-  </si>
-  <si>
-    <t>Б</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Код</t>
-  </si>
-  <si>
-    <t>Наименование вида экономической деятельности</t>
-  </si>
-  <si>
-    <t>Раздел 1</t>
-  </si>
-  <si>
-    <t>СВЕДЕНИЯ О ДЕЯТЕЛЬНОСТИ ОРГАНИЗАЦИИ ПО ВИДАМ ЭКОНОМИЧЕСКОЙ ДЕЯТЕЛЬНОСТИ</t>
-  </si>
-  <si>
-    <t>тысяч рублей</t>
-  </si>
-  <si>
-    <t>Таблица 1 (в целых числах), (в графе 2 отражается стоимость принятых на забалансовый счет бухгалтерского учета
+    <t xml:space="preserve">Местоположение: 223710, МИНСКАЯ ОБЛАСТЬ, Солигорский, Солигорск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Электронный адрес: oao.zgbk@gmail.com, zgbk@str3.by, oao.zgbk@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Регистрационный номер в статистическом регистре (ОКПО)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Учетный номер плательщика (УНП)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Территория нахождения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012774946001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600142670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Солигорский</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">56100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Деятельность ресторанов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Производство строительных металлических конструкций и их частей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Производство стеновых блоков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Производство сборных железобетонных и бетонных конструкций и изделий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Производство готового бетона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в том числе по видам экономической деятельности:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всего (сумма строк 11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Код</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование вида экономической деятельности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раздел 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВЕДЕНИЯ О ДЕЯТЕЛЬНОСТИ ОРГАНИЗАЦИИ ПО ВИДАМ ЭКОНОМИЧЕСКОЙ ДЕЯТЕЛЬНОСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тысяч рублей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 1 (в целых числах), (в графе 2 отражается стоимость принятых на забалансовый счет бухгалтерского учета
 переработанного сырья и материалов заказчика, не оплаченных организацией-изготовителем (давальческого сырья), а также
 стоимость материалов заказчика)</t>
   </si>
   <si>
-    <t>Объем
+    <t xml:space="preserve">Объем
 производства
 продукции
 (работ,
@@ -201,7 +195,7 @@
 года</t>
   </si>
   <si>
-    <t>Стоимость
+    <t xml:space="preserve">Стоимость
 переработанного
 (использованного)
 материала
@@ -214,7 +208,7 @@
 года</t>
   </si>
   <si>
-    <t>Объем
+    <t xml:space="preserve">Объем
 производства
 продукции
 (работ,
@@ -234,104 +228,104 @@
 периода</t>
   </si>
   <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>из него на внутренний рынок страны</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Объем отгруженной промышленной продукции (работ, услуг) за отчетный период</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>на конец отчетного периода</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Стоимость незавершенного промышленного производства: на начало отчетного периода</t>
-  </si>
-  <si>
-    <t>Всего</t>
-  </si>
-  <si>
-    <t>Наименование показателя</t>
-  </si>
-  <si>
-    <t>Раздел 2</t>
-  </si>
-  <si>
-    <t>ОТДЕЛЬНЫЕ СВЕДЕНИЯ О ДЕЯТЕЛЬНОСТИ ОРГАНИЗАЦИИ ПО ПРОИЗВОДСТВУ ПРОМЫШЛЕННОЙ ПРОДУКЦИИ (РАБОТ, УСЛУГ)</t>
-  </si>
-  <si>
-    <t>Таблица 2 в целых числах (заполняется только в отчетах юр.лица, обособленного подразделения юр.лица, п. 46 Указаний)</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Укажите код «1», если Ваша организация в отчетном периоде осуществляла затраты
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из него на внутренний рынок страны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Объем отгруженной промышленной продукции (работ, услуг) за отчетный период</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">на конец отчетного периода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стоимость незавершенного промышленного производства: на начало отчетного периода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всего</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование показателя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раздел 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОТДЕЛЬНЫЕ СВЕДЕНИЯ О ДЕЯТЕЛЬНОСТИ ОРГАНИЗАЦИИ ПО ПРОИЗВОДСТВУ ПРОМЫШЛЕННОЙ ПРОДУКЦИИ (РАБОТ, УСЛУГ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 2 в целых числах (заполняется только в отчетах юр.лица, обособленного подразделения юр.лица, п. 46 Указаний)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Укажите код «1», если Ваша организация в отчетном периоде осуществляла затраты
 на инновации</t>
   </si>
   <si>
-    <t>В</t>
-  </si>
-  <si>
-    <t>Ед.измерения</t>
-  </si>
-  <si>
-    <t>Раздел 3</t>
-  </si>
-  <si>
-    <t>ОТДЕЛЬНЫЕ СВЕДЕНИЯ О ДЕЯТЕЛЬНОСТИ ОРГАНИЗАЦИИ В ОБЛАСТИ ИННОВАЦИЙ, НАУЧНЫХ ИССЛЕДОВАНИЙ И РАЗРАБОТОК</t>
-  </si>
-  <si>
-    <t>Таблица 3 Затраты на инновации (только для организаций, с основным видом экономической деятельности с 05 по 39 ОКРБ 005-2011)</t>
+    <t xml:space="preserve">В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ед.измерения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раздел 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОТДЕЛЬНЫЕ СВЕДЕНИЯ О ДЕЯТЕЛЬНОСТИ ОРГАНИЗАЦИИ В ОБЛАСТИ ИННОВАЦИЙ, НАУЧНЫХ ИССЛЕДОВАНИЙ И РАЗРАБОТОК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 3 Затраты на инновации (только для организаций, с основным видом экономической деятельности с 05 по 39 ОКРБ 005-2011)</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Стоимость незавершенных работ в области научных исследований и разработок: на
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стоимость незавершенных работ в области научных исследований и разработок: на
 начало отчетного периода</t>
   </si>
   <si>
-    <t>Таблица 4 Затраты на научные исследования и разработки (только для организаций, осуществляющих затраты на научно-исследовательские, опытно-конструкторские и опытно-технологические работы)</t>
-  </si>
-  <si>
-    <t>Лицо, ответственное за составление и представление
+    <t xml:space="preserve">Таблица 4 Затраты на научные исследования и разработки (только для организаций, осуществляющих затраты на научно-исследовательские, опытно-конструкторские и опытно-технологические работы)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лицо, ответственное за составление и представление
 первичных статистических данных</t>
   </si>
   <si>
-    <t>(должность)</t>
-  </si>
-  <si>
-    <t>(подпись)</t>
-  </si>
-  <si>
-    <t>(инициалы, фамилия)</t>
-  </si>
-  <si>
-    <t>05.11.2024</t>
-  </si>
-  <si>
-    <t>(фамилия, собственное имя, отчество контактного
+    <t xml:space="preserve">(должность)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(подпись)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(инициалы, фамилия)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05.11.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(фамилия, собственное имя, отчество контактного
 лица, номер телефона, адрес электронной почты)</t>
   </si>
   <si>
-    <t>(дата составления государственной
+    <t xml:space="preserve">(дата составления государственной
 статистической отчетности)</t>
   </si>
   <si>
@@ -342,6 +336,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -688,11 +683,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -994,8 +989,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K14" sqref="K14:M14"/>
@@ -1327,8 +1322,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="E15" sqref="C9:E15"/>
@@ -1496,8 +1491,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C9:C12"/>
@@ -1603,8 +1598,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -1697,8 +1692,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:A15"/>

--- a/Stat reports/Reports/Templates/4-у.xlsx
+++ b/Stat reports/Reports/Templates/4-у.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kerri\source\repos\Stat-reports_for3.1\Stat reports\Reports\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDA1738-744D-46DE-9048-23333F4740EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB74904-0E9F-4333-A909-A1D1C09FAD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="525" yWindow="1800" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Главная" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -540,18 +540,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -604,6 +592,14 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -921,301 +917,301 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="14"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="14"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="18"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="24"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="14"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15" t="s">
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="14"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="16" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="25" t="s">
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="26" t="s">
+      <c r="L12" s="12"/>
+      <c r="M12" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="27"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="21"/>
     </row>
     <row r="14" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="12" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="14"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="14"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="14"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="14"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="14"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15" t="s">
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="14"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="12" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="12" t="s">
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="14"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15" t="s">
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="14"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -1268,33 +1264,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="5" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="30" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="7" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1407,27 +1403,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="14"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1499,29 +1495,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1570,9 +1566,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -1583,30 +1579,30 @@
     <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="20"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="14"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -1617,7 +1613,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1628,123 +1624,155 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Stat reports/Reports/Templates/4-у.xlsx
+++ b/Stat reports/Reports/Templates/4-у.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kerri\source\repos\Stat-reports_for3.1\Stat reports\Reports\Templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB74904-0E9F-4333-A909-A1D1C09FAD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="1800" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21375" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Главная" sheetId="1" r:id="rId1"/>
@@ -19,12 +13,12 @@
     <sheet name="Раздел 3" sheetId="4" r:id="rId4"/>
     <sheet name="Раздел 4" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="1531316224"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>ГОСУДАРСТВЕННАЯ СТАТИСТИЧЕСКАЯ ОТЧЕТНОСТЬ</t>
   </si>
@@ -33,9 +27,6 @@
   </si>
   <si>
     <t>Представление искаженных данных государственной статистической отчетности, несвоевременное представление или непредставление такой отчетности влекут применение мер административной или уголовной ответственности в порядке, установленном законодательством Республики Беларусь</t>
-  </si>
-  <si>
-    <t>Отчет о видах экономической деятельности организации  за  январь-сентябрь 2024</t>
   </si>
   <si>
     <t>Представляют респонденты</t>
@@ -72,21 +63,12 @@
 ОКТЯБРЬСКОЙ РЕВОЛЮЦИИ"</t>
   </si>
   <si>
-    <t>Местоположение: 223710, МИНСКАЯ ОБЛАСТЬ, Солигорский, Солигорск</t>
-  </si>
-  <si>
-    <t>Электронный адрес: oao.zgbk@gmail.com, zgbk@str3.by, oao.zgbk@gmail.com</t>
-  </si>
-  <si>
     <t>Регистрационный номер в статистическом регистре (ОКПО)</t>
   </si>
   <si>
     <t>Учетный номер плательщика (УНП)</t>
   </si>
   <si>
-    <t>Территория нахождения</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -97,9 +79,6 @@
   </si>
   <si>
     <t>012774946001</t>
-  </si>
-  <si>
-    <t>600142670</t>
   </si>
   <si>
     <t>Солигорский</t>
@@ -221,14 +200,27 @@
     <t>Таблица 4 Затраты на научные исследования и разработки (только для организаций, осуществляющих затраты на научно-исследовательские, опытно-конструкторские и опытно-технологические работы)</t>
   </si>
   <si>
-    <t>солевойск</t>
+    <t xml:space="preserve">Отчет о видах экономической деятельности организации  за  </t>
+  </si>
+  <si>
+    <t>Полное наименование обособленного подразделения юридического лица: ОТКРЫТОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО
+"СТРОЙТРЕСТ N 3 ОРДЕНА ОКТЯБРЬСКОЙ РЕВОЛЮЦИИ"</t>
+  </si>
+  <si>
+    <t>Местоположение: 223710, МИНСКАЯ ОБЛАСТЬ, Солигорский, Солигорск, УЛ. КОЗЛОВА, 37</t>
+  </si>
+  <si>
+    <t>Электронный адрес: str3@str3.by</t>
+  </si>
+  <si>
+    <t>Территория нахождения структурного подразделения (наименование района, города областного подчинения, город Минск)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -332,6 +324,10 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -346,14 +342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -523,12 +512,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -540,32 +529,65 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -593,35 +615,27 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -659,9 +673,9 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -713,7 +727,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -765,7 +779,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -907,314 +921,332 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="16"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="16"/>
+    </row>
+    <row r="6" spans="1:13" ht="30" customHeight="1">
+      <c r="A6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="18"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="22"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9" t="s">
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9" t="s">
+      <c r="L11" s="15"/>
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="1:13" ht="30" customHeight="1">
+      <c r="A12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="10" t="s">
+      <c r="I12" s="18"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="19" t="s">
+      <c r="L12" s="19"/>
+      <c r="M12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="20" t="s">
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="1:13" ht="45" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="21"/>
-    </row>
-    <row r="14" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="6" t="s">
+      <c r="L14" s="15"/>
+      <c r="M14" s="16"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1">
+      <c r="A15" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="1:13" ht="30" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1">
+      <c r="A17" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1">
+      <c r="A18" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="1:13" ht="30" customHeight="1">
+      <c r="A19" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="8"/>
-    </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="31"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="8"/>
-    </row>
-    <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9" t="s">
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9" t="s">
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1">
+      <c r="A21" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="32">
+        <v>601066750</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="8"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="A12:G14"/>
+    <mergeCell ref="H12:J14"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="K14:M14"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A6:M7"/>
@@ -1222,24 +1254,6 @@
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="K11:M11"/>
-    <mergeCell ref="A12:G14"/>
-    <mergeCell ref="H12:J14"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:M21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -1247,14 +1261,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E15" sqref="A9:E15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="A9:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="75.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -1263,117 +1277,173 @@
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="5" spans="1:5" ht="135" customHeight="1">
+      <c r="A5" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="7" spans="1:5" ht="285">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="5" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="7" spans="1:5" ht="285" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1388,81 +1458,81 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C12" sqref="A9:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="121.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
+      <c r="A1" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1">
+      <c r="A3" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="25"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="14"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1479,14 +1549,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="133.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
@@ -1494,60 +1564,60 @@
     <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" customHeight="1">
+      <c r="A1" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1">
+      <c r="A3" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1565,214 +1635,194 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="201.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
+      <c r="A1" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1">
+      <c r="A3" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="25"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="14"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
+    <row r="13" spans="1:10">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="10"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="13"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="10"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="11"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="10"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1781,6 +1831,6 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>